--- a/biology/Médecine/Présentation_du_sommet/Présentation_du_sommet.xlsx
+++ b/biology/Médecine/Présentation_du_sommet/Présentation_du_sommet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sentation_du_sommet</t>
+          <t>Présentation_du_sommet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La présentation du sommet est à la fois la plus fréquente (plus de 95 %) et la plus favorable à un accouchement normal.
 L'enfant se présente à l'entrée du bassin maternel par sa tête, très fléchie (menton contre la poitrine). Hors les cas de bassin maternel trop petit ou d'enfant trop gros (macrosomie fœtale), l'accouchement naturel par voie basse est toujours possible aux moindres efforts maternels et aux moindres risques pour l'enfant.
